--- a/biology/Zoologie/Eresia/Eresia.xlsx
+++ b/biology/Zoologie/Eresia/Eresia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Eresia est un genre de lépidoptères (papillons) de la famille des Nymphalidae, de la sous-famille des Nymphalinae, de la tribu des Melitaeini, et de la sous-tribu des Phyciodina.
 </t>
@@ -511,12 +523,12 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Le nom de Eresia leur a été donné par l’entomologiste français Jean-Baptiste Alphonse Dechauffour de Boisduval en 1836[1].
-L'espèce type pour le genre est Eresia eunice (Hübner, [1807])
-Synonyme
-Neptis (Illiger, 1807)[2].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Le nom de Eresia leur a été donné par l’entomologiste français Jean-Baptiste Alphonse Dechauffour de Boisduval en 1836.
+L'espèce type pour le genre est Eresia eunice (Hübner, )</t>
         </is>
       </c>
     </row>
@@ -541,30 +553,68 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Dénomination</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Synonyme</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Neptis (Illiger, 1807).</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Eresia</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Eresia</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Liste des espèces
 Eresia actinote Salvin, 1869; présent en Équateur, en Bolivie et au Pérou.
-Eresia carme Doubleday, [1847]; présent au Venezuela.
+Eresia carme Doubleday, ; présent au Venezuela.
 Eresia casiphia Hewitson, 1869; présent en Équateur.
 Eresia clio (Linnaeus, 1758); au Mexique en Guyane, Guyana, au Surinam, au Brésil, en Bolivie, Équateur et au Pérou.
-Eresia datis Hewitson, [1864]; présent en Colombie, en Bolivie, en Équateur et au Pérou.
+Eresia datis Hewitson, ; présent en Colombie, en Bolivie, en Équateur et au Pérou.
 Eresia estebana (Hall, 1929); présent au Venezuela.
-Eresia eunice (Hübner, [1807]); espèce type pour le genre ; présent en Guyane, Guyana, au Surinam, au Nicaragua, Costa Rica, à Panama, au Venezuela, au Brésil, en Colombie, en Argentine, Équateur et au Pérou.
+Eresia eunice (Hübner, ); espèce type pour le genre ; présent en Guyane, Guyana, au Surinam, au Nicaragua, Costa Rica, à Panama, au Venezuela, au Brésil, en Colombie, en Argentine, Équateur et au Pérou.
 Eresia erysice (Geyer, 1832); présent en Guyane et au Brésil.
-Eresia ithomioides Hewitson, [1864]; présent au Costa Rica, à Panama, au Paraguay, en Colombie, à Panama, en Équateur
+Eresia ithomioides Hewitson, ; présent au Costa Rica, à Panama, au Paraguay, en Colombie, à Panama, en Équateur
 Eresia lansdorfi (Godart, 1819); présent au Brésil.
-Eresia levina Hewitson, [1872]; présent en Colombie.
+Eresia levina Hewitson, ; présent en Colombie.
 Eresia letitia Hewitson, 1869; en Colombie, Équateur et au Pérou.
 Eresia nauplius (Linnaeus, 1758); présent en Guyane, Guyana, au Surinam, au Brésil, en Colombie, Équateur et au Pérou.
 Eresia olivencia Bates, 1864; présent à Panama, au Guatemala, au Venezuela, en Colombie  et au Pérou.
-Eresia perna Hewitson, [1852]; présent en Guyane, Guyana, au Surinam, au Venezuela, au Costa Rica, au Brésil et en Équateur.
-Eresia phillyra Hewitson, [1852]; présent au Mexique,au Guatemala et au Costa Rica.
-Eresia polina Hewitson, [1852]; présent au Venezuela, en Colombie, en Bolivie, Équateur et au Pérou.
-Eresia pelonia Hewitson, [1852]; en Bolivie, Équateur, au Brésil et au Pérou.
+Eresia perna Hewitson, ; présent en Guyane, Guyana, au Surinam, au Venezuela, au Costa Rica, au Brésil et en Équateur.
+Eresia phillyra Hewitson, ; présent au Mexique,au Guatemala et au Costa Rica.
+Eresia polina Hewitson, ; présent au Venezuela, en Colombie, en Bolivie, Équateur et au Pérou.
+Eresia pelonia Hewitson, ; en Bolivie, Équateur, au Brésil et au Pérou.
 Eresia sticta Schaus, 1913; présent au Costa Rica.
 			Eresia eunice - MHNT
 			Eresia nauplius - MHNT
